--- a/report_template/effective_single.xlsx
+++ b/report_template/effective_single.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
     <t>空品數據有效率年報表(單站多測項)</t>
   </si>
   <si>
-    <t>測站名稱：麥寮環境監測中心</t>
-  </si>
-  <si>
     <t>印表日期：20150805</t>
   </si>
   <si>
@@ -153,13 +150,17 @@
   </si>
   <si>
     <t>最大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測站名稱：台積電監測車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="##0.00"/>
   </numFmts>
@@ -356,6 +357,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -391,6 +409,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -570,7 +605,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A2" sqref="A2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -604,7 +639,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -622,13 +657,13 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -646,69 +681,69 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -730,7 +765,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -752,7 +787,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -774,7 +809,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -796,7 +831,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -818,7 +853,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -840,7 +875,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -862,7 +897,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -884,7 +919,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -906,7 +941,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -928,7 +963,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -950,7 +985,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -972,7 +1007,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -994,7 +1029,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1016,7 +1051,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>

--- a/report_template/effective_single.xlsx
+++ b/report_template/effective_single.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\EPA\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>空品數據有效率年報表(單站多測項)</t>
   </si>
@@ -150,10 +150,6 @@
   </si>
   <si>
     <t>最大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測站名稱：台積電監測車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,9 +634,7 @@
       <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
